--- a/Section3_Logical_Operators.xlsx
+++ b/Section3_Logical_Operators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINA\Documents\UDEMY\EXCEL\Excel+Demo+Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBD252E-FC8E-4E0D-818B-9AF8B618B9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333D17F5-59D7-4E57-A6F6-BF9F8EB21A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
